--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4C94C4-7459-43ED-A9F5-135449A08C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFD214-5D94-4EDC-AB25-E210ADC86279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
+    <workbookView xWindow="12750" yWindow="1365" windowWidth="28800" windowHeight="13800" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーサビリティマトリクス　" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>トレーサビリティマトリクス</t>
     <phoneticPr fontId="2"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モグラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>出現させる</t>
     <rPh sb="0" eb="2">
       <t>シュツゲン</t>
@@ -141,15 +137,242 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Easy</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Hard</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Normal</t>
+    <t>ハイスコア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録する</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリアする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー切替</t>
+    <rPh sb="4" eb="6">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームスタート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームストップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW検知</t>
+    <rPh sb="2" eb="4">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LCD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示バッファに書き込む</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブザー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音を鳴らす</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音を消す</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力処理</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力処理</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッファの内容を表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モグラの処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutOfHole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BackToHole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Attacked</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何もしない</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DoNothing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Timer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CountDown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Penalty</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IncScore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SetLevel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HighScore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Clear</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ChangeUser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ChangeState</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WriteBuffer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BufferToLCD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Buzzer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayBuzzer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StopBuzzer</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -306,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,38 +542,53 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,149 +904,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
     <col min="5" max="5" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+    </row>
+    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" s="19"/>
+      <c r="W5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="13"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="16"/>
+      <c r="V6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+    </row>
+    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9">
+        <f>ROW(A8) - 7</f>
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9">
+        <f t="shared" ref="A9:A35" si="0">ROW(A9) - 7</f>
+        <v>2</v>
+      </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>17</v>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="28">
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K5:K7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFD214-5D94-4EDC-AB25-E210ADC86279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961D9F8-2028-4992-8F97-8324AA68B9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="1365" windowWidth="28800" windowHeight="13800" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーサビリティマトリクス　" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>トレーサビリティマトリクス</t>
     <phoneticPr fontId="2"/>
@@ -205,26 +205,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>音を鳴らす</t>
-    <rPh sb="0" eb="1">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>音を消す</t>
-    <rPh sb="0" eb="1">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>出力処理</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
@@ -368,11 +348,53 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PlayBuzzer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>StopBuzzer</t>
+    <t>BGMを鳴らす</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BGMを止める</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>効果音を鳴らす</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>効果音を止める</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayBGM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StopBGM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlaySE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StopSE</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -560,6 +582,21 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,21 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,13 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V36" sqref="V36"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -922,208 +944,216 @@
     <col min="5" max="5" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-    </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+    </row>
+    <row r="5" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="18" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="18" t="s">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="16" t="s">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="11"/>
+      <c r="Y5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18" t="s">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="13"/>
+      <c r="V6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="18" t="s">
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18" t="s">
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-    </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="19"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+    </row>
+    <row r="8" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <f>ROW(A8) - 7</f>
         <v>1</v>
@@ -1132,19 +1162,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
-        <f t="shared" ref="A9:A35" si="0">ROW(A9) - 7</f>
+        <f t="shared" ref="A9:A37" si="0">ROW(A9) - 7</f>
         <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1153,19 +1183,19 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1174,18 +1204,18 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1194,10 +1224,10 @@
         <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1206,10 +1236,10 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1227,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1239,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1260,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1272,7 +1302,7 @@
         <v>14</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1293,7 +1323,7 @@
         <v>16</v>
       </c>
       <c r="S23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1305,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="T24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1317,7 +1347,7 @@
         <v>18</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1329,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="X26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1338,7 +1368,7 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1356,7 +1386,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1377,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="AA31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1386,13 +1416,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1401,32 +1431,75 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="AD34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="AE35" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="R5:R7"/>
     <mergeCell ref="Z5:Z7"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AB6:AB7"/>
@@ -1438,23 +1511,6 @@
     <mergeCell ref="W5:W7"/>
     <mergeCell ref="X6:X7"/>
     <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961D9F8-2028-4992-8F97-8324AA68B9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D386D1-2468-4850-874A-07B7EBB48A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーサビリティマトリクス　" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>トレーサビリティマトリクス</t>
     <phoneticPr fontId="2"/>
@@ -152,18 +152,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザー切替</t>
-    <rPh sb="4" eb="6">
-      <t>キリカエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲームスタート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲームストップ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -304,26 +293,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>HighScore</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Clear</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ChangeUser</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>State</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -395,6 +364,36 @@
   </si>
   <si>
     <t>StopSE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム終了処理</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SaveHighScore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ClearHighScore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PopDecision</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TimerInterrupt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PWMInterrupt</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -535,9 +534,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -551,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,12 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,8 +600,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,13 +932,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -944,33 +950,33 @@
     <col min="5" max="5" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="10"/>
@@ -991,526 +997,1450 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-    </row>
-    <row r="5" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AC4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="14" t="s">
-        <v>32</v>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="12" t="s">
-        <v>38</v>
+      <c r="K5" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="12" t="s">
+      <c r="R5" s="10"/>
+      <c r="S5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="12" t="s">
+      <c r="T5" s="11"/>
+      <c r="U5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="19"/>
+    </row>
+    <row r="6" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG6" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI6" s="19"/>
+    </row>
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-    </row>
-    <row r="8" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
+      <c r="E7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="19"/>
+    </row>
+    <row r="8" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="20">
         <f>ROW(A8) - 7</f>
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
-        <f t="shared" ref="A9:A37" si="0">ROW(A9) - 7</f>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+    </row>
+    <row r="9" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="20">
+        <f t="shared" ref="A9:A36" si="0">ROW(A9) - 7</f>
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+    </row>
+    <row r="10" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+    </row>
+    <row r="11" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+    </row>
+    <row r="12" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+    </row>
+    <row r="13" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+    </row>
+    <row r="14" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+    </row>
+    <row r="15" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+    </row>
+    <row r="16" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+    </row>
+    <row r="17" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+    </row>
+    <row r="19" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+    </row>
+    <row r="20" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="9">
-        <f t="shared" si="0"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+    </row>
+    <row r="21" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="20">
+        <f>ROW(A21) - 7</f>
         <v>14</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9">
-        <f t="shared" si="0"/>
+      <c r="B21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+    </row>
+    <row r="22" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="20">
+        <f>ROW(A22) - 7</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9">
-        <f t="shared" si="0"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+    </row>
+    <row r="23" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="20">
+        <f>ROW(A23) - 7</f>
         <v>16</v>
       </c>
-      <c r="S23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+    </row>
+    <row r="24" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="T24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9">
+      <c r="B24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+    </row>
+    <row r="25" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="9">
+      <c r="B25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+    </row>
+    <row r="26" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="X26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9">
+      <c r="B26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+    </row>
+    <row r="27" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="9">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+    </row>
+    <row r="28" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="9">
+      <c r="B28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+    </row>
+    <row r="29" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="9">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21"/>
+    </row>
+    <row r="30" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="9">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+    </row>
+    <row r="31" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="9">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+    </row>
+    <row r="32" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="9">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+    </row>
+    <row r="33" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="20">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+      <c r="AI33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="20">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="9">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="9">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="20">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>31</v>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M5:M7"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="K5:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Q5:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540EC6EE-9269-4235-8C5A-A999D9D34C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62EF72-255C-452D-8F18-54DFD7F480B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーサビリティマトリクス　" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>トレーサビリティマトリクス</t>
     <phoneticPr fontId="2"/>
@@ -573,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,68 +607,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,333 +1047,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.08203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="28.08203125" customWidth="1"/>
-    <col min="5" max="5" width="3.58203125" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
       <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-    </row>
-    <row r="4" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="17" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="15" t="s">
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="50"/>
+      <c r="N5" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="20" t="s">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="50"/>
+      <c r="T5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="52"/>
+      <c r="V5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="20" t="s">
+      <c r="W5" s="51"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="20" t="s">
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="24" t="s">
+      <c r="AF5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="15"/>
-    </row>
-    <row r="6" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="23"/>
+    </row>
+    <row r="6" spans="1:34" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="25" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="25" t="s">
+      <c r="K6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="34"/>
+      <c r="M6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="34"/>
+      <c r="O6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="P6" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="Q6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="34"/>
+      <c r="U6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="34"/>
+      <c r="W6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="X6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="25" t="s">
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="AA6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AB6" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AC6" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="25" t="s">
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AI6" s="15"/>
-    </row>
-    <row r="7" spans="1:35" s="8" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AH6" s="23"/>
+    </row>
+    <row r="7" spans="1:34" s="8" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="15"/>
-    </row>
-    <row r="8" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="31">
+      <c r="E7" s="23"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="23"/>
+    </row>
+    <row r="8" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="17">
         <f>ROW(A8) - 7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="10"/>
-    </row>
-    <row r="9" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="10"/>
+    </row>
+    <row r="9" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="17">
         <f t="shared" ref="A9:A36" si="0">ROW(A9) - 7</f>
         <v>2</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1318,43 +1373,42 @@
       <c r="E9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-    </row>
-    <row r="10" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31">
+    </row>
+    <row r="10" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="10" t="s">
         <v>57</v>
       </c>
@@ -1362,1215 +1416,1187 @@
       <c r="E10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-    </row>
-    <row r="11" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31">
+    </row>
+    <row r="11" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-    </row>
-    <row r="12" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31">
+    </row>
+    <row r="12" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
-      <c r="AF12" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-    </row>
-    <row r="13" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="31">
+    </row>
+    <row r="13" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17">
         <v>6</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-    </row>
-    <row r="14" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="31">
+    </row>
+    <row r="14" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-    </row>
-    <row r="15" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="31">
+    </row>
+    <row r="15" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-    </row>
-    <row r="16" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="31">
+    </row>
+    <row r="16" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-    </row>
-    <row r="17" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="31">
+    </row>
+    <row r="17" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10" t="s">
+      <c r="AG17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AI17" s="10"/>
-    </row>
-    <row r="18" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="31">
+      <c r="AH17" s="10"/>
+    </row>
+    <row r="18" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="13"/>
+      <c r="M18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-    </row>
-    <row r="19" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="31">
+    </row>
+    <row r="19" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-    </row>
-    <row r="20" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="31">
+    </row>
+    <row r="20" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10" t="s">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-    </row>
-    <row r="21" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="31">
+    </row>
+    <row r="21" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="17">
         <f>ROW(A21) - 7</f>
         <v>14</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-    </row>
-    <row r="22" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="31">
+    </row>
+    <row r="22" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="17">
         <f>ROW(A22) - 7</f>
         <v>15</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10" t="s">
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-    </row>
-    <row r="23" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="31">
+    </row>
+    <row r="23" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="17">
         <f>ROW(A23) - 7</f>
         <v>16</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10" t="s">
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-    </row>
-    <row r="24" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="31">
+    </row>
+    <row r="24" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10" t="s">
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-    </row>
-    <row r="25" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="31">
+    </row>
+    <row r="25" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10" t="s">
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-    </row>
-    <row r="26" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="31">
+    </row>
+    <row r="26" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
       <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-    </row>
-    <row r="27" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="31">
+    </row>
+    <row r="27" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10" t="s">
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-    </row>
-    <row r="28" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="31">
+    </row>
+    <row r="28" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-    </row>
-    <row r="29" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="31">
+    </row>
+    <row r="29" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-    </row>
-    <row r="30" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="31">
+    </row>
+    <row r="30" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10" t="s">
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
       <c r="AG30" s="10"/>
       <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-    </row>
-    <row r="31" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="31">
+    </row>
+    <row r="31" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10" t="s">
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
       <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-    </row>
-    <row r="32" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="31">
+    </row>
+    <row r="32" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
       <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-    </row>
-    <row r="33" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="31">
+    </row>
+    <row r="33" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10" t="s">
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10" t="s">
+      <c r="AH33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="31">
+    <row r="34" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10" t="s">
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
       <c r="AD34" s="10"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
       <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10" t="s">
+      <c r="AH34" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="31">
+    <row r="35" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10" t="s">
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
+      <c r="AC35" s="13"/>
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
       <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10" t="s">
+      <c r="AH35" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="31">
+    <row r="36" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10" t="s">
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
       <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10" t="s">
+      <c r="AH36" s="10" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="P6:P7"/>
+  <mergeCells count="38">
+    <mergeCell ref="F4:AC4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="E3:AH3"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N5:N7"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="X6:X7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F4:AB4"/>
-    <mergeCell ref="E3:AI3"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AH4:AH7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62EF72-255C-452D-8F18-54DFD7F480B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE167088-EF92-4F6C-8FB0-C3E025374E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
@@ -628,35 +628,98 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
@@ -669,69 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,7 +1053,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AO7" sqref="AO7"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1077,83 +1077,83 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
     </row>
     <row r="4" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="46" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="23" t="s">
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="47" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1162,82 +1162,82 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="47" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="18"/>
+      <c r="N5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="47" t="s">
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="50"/>
-      <c r="T5" s="47" t="s">
+      <c r="S5" s="18"/>
+      <c r="T5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="47" t="s">
+      <c r="U5" s="19"/>
+      <c r="V5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="51"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="47" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="19" t="s">
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="44" t="s">
+      <c r="AF5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="23"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="47"/>
     </row>
     <row r="6" spans="1:34" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="51" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="32" t="s">
         <v>40</v>
       </c>
@@ -1247,22 +1247,22 @@
       <c r="Q6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="34"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="34"/>
+      <c r="T6" s="35"/>
       <c r="U6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="34"/>
+      <c r="V6" s="35"/>
       <c r="W6" s="32" t="s">
         <v>46</v>
       </c>
       <c r="X6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="34"/>
+      <c r="Y6" s="35"/>
       <c r="Z6" s="32" t="s">
         <v>53</v>
       </c>
@@ -1275,49 +1275,49 @@
       <c r="AC6" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18" t="s">
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AH6" s="23"/>
-    </row>
-    <row r="7" spans="1:34" s="8" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AH6" s="47"/>
+    </row>
+    <row r="7" spans="1:34" s="8" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="33"/>
-      <c r="L7" s="35"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="35"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
-      <c r="R7" s="35"/>
+      <c r="R7" s="36"/>
       <c r="S7" s="33"/>
-      <c r="T7" s="35"/>
+      <c r="T7" s="36"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="35"/>
+      <c r="V7" s="36"/>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
-      <c r="Y7" s="35"/>
+      <c r="Y7" s="36"/>
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
       <c r="AC7" s="33"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="23"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="47"/>
     </row>
     <row r="8" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
@@ -2559,11 +2559,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F4:AC4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AH4:AH7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="X6:X7"/>
     <mergeCell ref="AG6:AG7"/>
     <mergeCell ref="E3:AH3"/>
     <mergeCell ref="K6:K7"/>
@@ -2580,23 +2592,11 @@
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="F4:AC4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Z5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE167088-EF92-4F6C-8FB0-C3E025374E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A59A33B-41CA-4E84-902C-B1298A348C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>トレーサビリティマトリクス</t>
     <phoneticPr fontId="2"/>
@@ -394,6 +394,21 @@
   </si>
   <si>
     <t>PWMInterrupt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LED更新</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UpdateLED</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -459,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -567,13 +582,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +663,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,80 +762,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,13 +1091,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1065,261 +1109,275 @@
     <col min="5" max="5" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-    </row>
-    <row r="4" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="40"/>
+    </row>
+    <row r="4" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="37" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="47" t="s">
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="34" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="41" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="18"/>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="34" t="s">
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="41" t="s">
         <v>41</v>
       </c>
       <c r="S5" s="18"/>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="41" t="s">
         <v>43</v>
       </c>
       <c r="U5" s="19"/>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="34" t="s">
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="39" t="s">
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="40" t="s">
+      <c r="AH5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="47"/>
-    </row>
-    <row r="6" spans="1:34" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="21"/>
+    </row>
+    <row r="6" spans="1:36" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="32" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="32" t="s">
+      <c r="L6" s="42"/>
+      <c r="M6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="32" t="s">
+      <c r="N6" s="42"/>
+      <c r="O6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="32" t="s">
+      <c r="R6" s="42"/>
+      <c r="S6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="32" t="s">
+      <c r="T6" s="42"/>
+      <c r="U6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="35"/>
-      <c r="W6" s="32" t="s">
+      <c r="V6" s="42"/>
+      <c r="W6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="32" t="s">
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA6" s="32" t="s">
+      <c r="AA6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="32" t="s">
+      <c r="AB6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="32" t="s">
+      <c r="AC6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="28" t="s">
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AH6" s="47"/>
-    </row>
-    <row r="7" spans="1:34" s="8" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ6" s="21"/>
+    </row>
+    <row r="7" spans="1:36" s="8" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="47"/>
-    </row>
-    <row r="8" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="21"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="21"/>
+    </row>
+    <row r="8" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
         <f>ROW(A8) - 7</f>
         <v>1</v>
@@ -1358,11 +1416,13 @@
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
-      <c r="AH8" s="10"/>
-    </row>
-    <row r="9" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="10"/>
+    </row>
+    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
-        <f t="shared" ref="A9:A36" si="0">ROW(A9) - 7</f>
+        <f t="shared" ref="A9:A38" si="0">ROW(A9) - 7</f>
         <v>2</v>
       </c>
       <c r="B9" s="14"/>
@@ -1397,13 +1457,15 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
-    </row>
-    <row r="10" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+    </row>
+    <row r="10" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1440,13 +1502,15 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-    </row>
-    <row r="11" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+    </row>
+    <row r="11" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1481,13 +1545,15 @@
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-    </row>
-    <row r="12" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1526,13 +1592,15 @@
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
-    </row>
-    <row r="13" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+    </row>
+    <row r="13" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17">
         <v>6</v>
       </c>
@@ -1568,13 +1636,15 @@
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
-    </row>
-    <row r="14" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+    </row>
+    <row r="14" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1611,13 +1681,15 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
-    </row>
-    <row r="15" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+    </row>
+    <row r="15" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1654,13 +1726,15 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
-    </row>
-    <row r="16" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+    </row>
+    <row r="16" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1695,13 +1769,15 @@
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
       <c r="AC16" s="13"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
-    </row>
-    <row r="17" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+    </row>
+    <row r="17" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1736,15 +1812,17 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="10" t="s">
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AH17" s="10"/>
-    </row>
-    <row r="18" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ17" s="10"/>
+    </row>
+    <row r="18" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1781,13 +1859,15 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
-    </row>
-    <row r="19" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+    </row>
+    <row r="19" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1822,13 +1902,15 @@
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
-    </row>
-    <row r="20" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+    </row>
+    <row r="20" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1865,13 +1947,15 @@
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
-    </row>
-    <row r="21" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+    </row>
+    <row r="21" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17">
         <f>ROW(A21) - 7</f>
         <v>14</v>
@@ -1906,13 +1990,15 @@
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
-    </row>
-    <row r="22" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+    </row>
+    <row r="22" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
         <f>ROW(A22) - 7</f>
         <v>15</v>
@@ -1949,13 +2035,15 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="13"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
-    </row>
-    <row r="23" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+    </row>
+    <row r="23" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17">
         <f>ROW(A23) - 7</f>
         <v>16</v>
@@ -1992,13 +2080,15 @@
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
-    </row>
-    <row r="24" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+    </row>
+    <row r="24" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2035,13 +2125,15 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
-    </row>
-    <row r="25" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+    </row>
+    <row r="25" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2078,13 +2170,15 @@
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
       <c r="AF25" s="10"/>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
-    </row>
-    <row r="26" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+    </row>
+    <row r="26" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2119,13 +2213,15 @@
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
       <c r="AH26" s="10"/>
-    </row>
-    <row r="27" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+    </row>
+    <row r="27" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2160,15 +2256,17 @@
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10" t="s">
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
-    </row>
-    <row r="28" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+    </row>
+    <row r="28" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2203,13 +2301,15 @@
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
-    </row>
-    <row r="29" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+    </row>
+    <row r="29" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2244,13 +2344,15 @@
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
-    </row>
-    <row r="30" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+    </row>
+    <row r="30" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2287,13 +2389,15 @@
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
       <c r="AF30" s="10"/>
       <c r="AG30" s="10"/>
       <c r="AH30" s="10"/>
-    </row>
-    <row r="31" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+    </row>
+    <row r="31" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2330,13 +2434,15 @@
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
       <c r="AH31" s="10"/>
-    </row>
-    <row r="32" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+    </row>
+    <row r="32" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2371,13 +2477,15 @@
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
       <c r="AC32" s="13"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
       <c r="AH32" s="10"/>
-    </row>
-    <row r="33" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+    </row>
+    <row r="33" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2414,15 +2522,17 @@
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
       <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
-      <c r="AH33" s="10" t="s">
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2459,15 +2569,17 @@
       </c>
       <c r="AB34" s="13"/>
       <c r="AC34" s="13"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
       <c r="AF34" s="10"/>
       <c r="AG34" s="10"/>
-      <c r="AH34" s="10" t="s">
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2504,20 +2616,22 @@
         <v>29</v>
       </c>
       <c r="AC35" s="13"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
       <c r="AF35" s="10"/>
       <c r="AG35" s="10"/>
-      <c r="AH35" s="10" t="s">
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="12"/>
       <c r="D36" s="10" t="s">
         <v>52</v>
@@ -2549,35 +2663,123 @@
       <c r="AC36" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
       <c r="AF36" s="10"/>
       <c r="AG36" s="10"/>
-      <c r="AH36" s="10" t="s">
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="37" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+    </row>
+    <row r="38" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="17">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="P6:P7"/>
+  <mergeCells count="40">
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="F4:AC4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="X6:X7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="E3:AH3"/>
+    <mergeCell ref="E3:AJ3"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="M6:M7"/>
@@ -2585,18 +2787,22 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="R5:R7"/>
     <mergeCell ref="S6:S7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V5:V7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="F4:AC4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Z5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A59A33B-41CA-4E84-902C-B1298A348C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E29C65F-86F7-475D-8009-CE1E98C237B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
@@ -32,6 +32,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>fuminori.hakoishi</author>
+  </authors>
+  <commentList>
+    <comment ref="AH5" authorId="0" shapeId="0" xr:uid="{18D98EC3-F30E-4AB4-9F25-F90245CA1ADC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>fuminori.hakoishi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+名前変更</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
@@ -419,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +488,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -663,6 +714,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -672,30 +777,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
@@ -713,69 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,17 +1141,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE39" sqref="AE39"/>
+      <selection pane="bottomRight" activeCell="AH5" sqref="AH5:AH7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1109,275 +1160,275 @@
     <col min="5" max="5" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="40"/>
-    </row>
-    <row r="4" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="47"/>
+    </row>
+    <row r="4" spans="1:36" ht="16.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="47"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="25"/>
       <c r="AD4" s="20"/>
       <c r="AE4" s="20"/>
-      <c r="AF4" s="44" t="s">
+      <c r="AF4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="21" t="s">
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="16.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="41" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="48" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="18"/>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="41" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="48" t="s">
         <v>41</v>
       </c>
       <c r="S5" s="18"/>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="48" t="s">
         <v>43</v>
       </c>
       <c r="U5" s="19"/>
-      <c r="V5" s="41" t="s">
+      <c r="V5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="41" t="s">
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="56" t="s">
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="32" t="s">
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="54" t="s">
         <v>36</v>
       </c>
       <c r="AI5" s="18"/>
-      <c r="AJ5" s="21"/>
-    </row>
-    <row r="6" spans="1:36" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ5" s="39"/>
+    </row>
+    <row r="6" spans="1:36" ht="32.25" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="22" t="s">
+      <c r="L6" s="49"/>
+      <c r="M6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="22" t="s">
+      <c r="N6" s="49"/>
+      <c r="O6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="22" t="s">
+      <c r="R6" s="49"/>
+      <c r="S6" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="42"/>
-      <c r="U6" s="22" t="s">
+      <c r="T6" s="49"/>
+      <c r="U6" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="22" t="s">
+      <c r="V6" s="49"/>
+      <c r="W6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="22" t="s">
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="22" t="s">
+      <c r="AB6" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="22" t="s">
+      <c r="AC6" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="58" t="s">
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="37" t="s">
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AJ6" s="21"/>
-    </row>
-    <row r="7" spans="1:36" s="8" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ6" s="39"/>
+    </row>
+    <row r="7" spans="1:36" s="8" customFormat="1" ht="84.75" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="21"/>
-    </row>
-    <row r="8" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="39"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="39"/>
+    </row>
+    <row r="8" spans="1:36" ht="16.5" customHeight="1">
       <c r="A8" s="17">
         <f>ROW(A8) - 7</f>
         <v>1</v>
@@ -1420,7 +1471,7 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="10"/>
     </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" ht="16.5" customHeight="1">
       <c r="A9" s="17">
         <f t="shared" ref="A9:A38" si="0">ROW(A9) - 7</f>
         <v>2</v>
@@ -1465,7 +1516,7 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
     </row>
-    <row r="10" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" ht="16.5" customHeight="1">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1510,7 +1561,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
     </row>
-    <row r="11" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" ht="16.5" customHeight="1">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1553,7 +1604,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
     </row>
-    <row r="12" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" ht="16.5" customHeight="1">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1600,7 +1651,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
     </row>
-    <row r="13" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" ht="16.5" customHeight="1">
       <c r="A13" s="17">
         <v>6</v>
       </c>
@@ -1644,7 +1695,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
     </row>
-    <row r="14" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" ht="16.5" customHeight="1">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1689,7 +1740,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
     </row>
-    <row r="15" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" ht="16.5" customHeight="1">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1734,7 +1785,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="10"/>
     </row>
-    <row r="16" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" ht="16.5" customHeight="1">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1777,7 +1828,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
     </row>
-    <row r="17" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" ht="16.5" customHeight="1">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1822,7 +1873,7 @@
       </c>
       <c r="AJ17" s="10"/>
     </row>
-    <row r="18" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:36" ht="16.5" customHeight="1">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1867,7 +1918,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
     </row>
-    <row r="19" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36" ht="16.5" customHeight="1">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1910,7 +1961,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
     </row>
-    <row r="20" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" ht="16.5" customHeight="1">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1955,7 +2006,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
     </row>
-    <row r="21" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36" ht="16.5" customHeight="1">
       <c r="A21" s="17">
         <f>ROW(A21) - 7</f>
         <v>14</v>
@@ -1998,7 +2049,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
     </row>
-    <row r="22" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:36" ht="16.5" customHeight="1">
       <c r="A22" s="17">
         <f>ROW(A22) - 7</f>
         <v>15</v>
@@ -2043,7 +2094,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
     </row>
-    <row r="23" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36" ht="16.5" customHeight="1">
       <c r="A23" s="17">
         <f>ROW(A23) - 7</f>
         <v>16</v>
@@ -2088,7 +2139,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="10"/>
     </row>
-    <row r="24" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:36" ht="16.5" customHeight="1">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2133,7 +2184,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="10"/>
     </row>
-    <row r="25" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:36" ht="16.5" customHeight="1">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2178,7 +2229,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
     </row>
-    <row r="26" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:36" ht="16.5" customHeight="1">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2221,7 +2272,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="10"/>
     </row>
-    <row r="27" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:36" ht="16.5" customHeight="1">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2266,7 +2317,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="10"/>
     </row>
-    <row r="28" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:36" ht="16.5" customHeight="1">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2309,7 +2360,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="10"/>
     </row>
-    <row r="29" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:36" ht="16.5" customHeight="1">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2352,7 +2403,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="10"/>
     </row>
-    <row r="30" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:36" ht="16.5" customHeight="1">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2397,7 +2448,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="10"/>
     </row>
-    <row r="31" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:36" ht="16.5" customHeight="1">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2442,7 +2493,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="10"/>
     </row>
-    <row r="32" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:36" ht="16.5" customHeight="1">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2485,7 +2536,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="10"/>
     </row>
-    <row r="33" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:36" ht="16.5" customHeight="1">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2532,7 +2583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:36" ht="16.5" customHeight="1">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2579,7 +2630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:36" ht="16.5" customHeight="1">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2626,7 +2677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:36" ht="16.5" customHeight="1">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2673,7 +2724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:36" ht="16.5" customHeight="1">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2716,7 +2767,7 @@
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
     </row>
-    <row r="38" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:36" ht="16.5" customHeight="1">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2763,14 +2814,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="F4:AC4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G6:G7"/>
@@ -2787,25 +2846,18 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="R5:R7"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="F4:AC4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\hakoishi\TechTrain\PIC_Train\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E29C65F-86F7-475D-8009-CE1E98C237B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B1E64-4607-4DF3-8457-0777326C223A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
+    <workbookView xWindow="-11385" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーサビリティマトリクス　" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>fuminori.hakoishi</author>
   </authors>
   <commentList>
-    <comment ref="AH5" authorId="0" shapeId="0" xr:uid="{18D98EC3-F30E-4AB4-9F25-F90245CA1ADC}">
+    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{18D98EC3-F30E-4AB4-9F25-F90245CA1ADC}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>トレーサビリティマトリクス</t>
     <phoneticPr fontId="2"/>
@@ -341,14 +341,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>WriteBuffer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BufferToLCD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Buzzer</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -445,6 +437,10 @@
   </si>
   <si>
     <t>UpdateLED</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WindowManager</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -650,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +713,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
@@ -741,12 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -758,75 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,13 +1135,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="N29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AH5" sqref="AH5:AH7"/>
+      <selection pane="bottomRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
@@ -1160,275 +1153,268 @@
     <col min="5" max="5" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16.5" customHeight="1">
+    <row r="1" spans="1:35" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="16.5" customHeight="1">
+    <row r="2" spans="1:35" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:36" ht="16.5" customHeight="1">
+    <row r="3" spans="1:35" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="45" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="47"/>
-    </row>
-    <row r="4" spans="1:36" ht="16.5" customHeight="1">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="45"/>
+    </row>
+    <row r="4" spans="1:35" ht="16.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="25"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="20"/>
       <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="16.5" customHeight="1">
+      <c r="AE4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="16.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="48" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="34" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="18"/>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="48" t="s">
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="34" t="s">
         <v>41</v>
       </c>
       <c r="S5" s="18"/>
-      <c r="T5" s="48" t="s">
+      <c r="T5" s="34" t="s">
         <v>43</v>
       </c>
       <c r="U5" s="19"/>
-      <c r="V5" s="48" t="s">
+      <c r="V5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="53" t="s">
+      <c r="W5" s="22"/>
+      <c r="X5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AH5" s="54" t="s">
+      <c r="AG5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="39"/>
-    </row>
-    <row r="6" spans="1:36" ht="32.25" customHeight="1">
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="23"/>
+    </row>
+    <row r="6" spans="1:35" ht="32.25" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="40" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="40" t="s">
+      <c r="K6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="40" t="s">
+      <c r="N6" s="35"/>
+      <c r="O6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="49"/>
-      <c r="S6" s="40" t="s">
+      <c r="P6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="35"/>
+      <c r="S6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="49"/>
-      <c r="U6" s="40" t="s">
+      <c r="T6" s="35"/>
+      <c r="U6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="49"/>
-      <c r="W6" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="40" t="s">
+      <c r="V6" s="35"/>
+      <c r="W6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AA6" s="40" t="s">
+      <c r="AB6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="58" t="s">
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AJ6" s="39"/>
-    </row>
-    <row r="7" spans="1:36" s="8" customFormat="1" ht="84.75" customHeight="1">
+      <c r="AI6" s="23"/>
+    </row>
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="84.75" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="39"/>
-    </row>
-    <row r="8" spans="1:36" ht="16.5" customHeight="1">
+      <c r="E7" s="23"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="23"/>
+    </row>
+    <row r="8" spans="1:35" ht="16.5" customHeight="1">
       <c r="A8" s="17">
         <f>ROW(A8) - 7</f>
         <v>1</v>
@@ -1468,10 +1454,9 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="10"/>
-    </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1">
+      <c r="AI8" s="10"/>
+    </row>
+    <row r="9" spans="1:35" ht="16.5" customHeight="1">
       <c r="A9" s="17">
         <f t="shared" ref="A9:A38" si="0">ROW(A9) - 7</f>
         <v>2</v>
@@ -1509,21 +1494,20 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
+      <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-    </row>
-    <row r="10" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:35" ht="16.5" customHeight="1">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
@@ -1554,14 +1538,13 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
+      <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-    </row>
-    <row r="11" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:35" ht="16.5" customHeight="1">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1597,14 +1580,13 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
+      <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-    </row>
-    <row r="12" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:35" ht="16.5" customHeight="1">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1644,14 +1626,13 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
+      <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-    </row>
-    <row r="13" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:35" ht="16.5" customHeight="1">
       <c r="A13" s="17">
         <v>6</v>
       </c>
@@ -1688,14 +1669,13 @@
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
+      <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-    </row>
-    <row r="14" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:35" ht="16.5" customHeight="1">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1733,14 +1713,13 @@
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
+      <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-    </row>
-    <row r="15" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="15" spans="1:35" ht="16.5" customHeight="1">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1778,14 +1757,13 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
+      <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-    </row>
-    <row r="16" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:35" ht="16.5" customHeight="1">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1821,14 +1799,13 @@
       <c r="AB16" s="13"/>
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
+      <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
       <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-    </row>
-    <row r="17" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:35" ht="16.5" customHeight="1">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1864,16 +1841,15 @@
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
+      <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10" t="s">
+      <c r="AH17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AJ17" s="10"/>
-    </row>
-    <row r="18" spans="1:36" ht="16.5" customHeight="1">
+      <c r="AI17" s="10"/>
+    </row>
+    <row r="18" spans="1:35" ht="16.5" customHeight="1">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1911,14 +1887,13 @@
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
+      <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-    </row>
-    <row r="19" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="19" spans="1:35" ht="16.5" customHeight="1">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1954,14 +1929,13 @@
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
+      <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-    </row>
-    <row r="20" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:35" ht="16.5" customHeight="1">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1999,14 +1973,13 @@
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
+      <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-    </row>
-    <row r="21" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="21" spans="1:35" ht="16.5" customHeight="1">
       <c r="A21" s="17">
         <f>ROW(A21) - 7</f>
         <v>14</v>
@@ -2042,14 +2015,13 @@
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
+      <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-    </row>
-    <row r="22" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:35" ht="16.5" customHeight="1">
       <c r="A22" s="17">
         <f>ROW(A22) - 7</f>
         <v>15</v>
@@ -2087,14 +2059,13 @@
       <c r="AB22" s="13"/>
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
+      <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-    </row>
-    <row r="23" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="23" spans="1:35" ht="16.5" customHeight="1">
       <c r="A23" s="17">
         <f>ROW(A23) - 7</f>
         <v>16</v>
@@ -2132,14 +2103,13 @@
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
+      <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-    </row>
-    <row r="24" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:35" ht="16.5" customHeight="1">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2177,14 +2147,13 @@
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
+      <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
       <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-    </row>
-    <row r="25" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="25" spans="1:35" ht="16.5" customHeight="1">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2222,14 +2191,13 @@
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
+      <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-    </row>
-    <row r="26" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="26" spans="1:35" ht="16.5" customHeight="1">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2265,14 +2233,13 @@
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
+      <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
       <c r="AH26" s="10"/>
       <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-    </row>
-    <row r="27" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="27" spans="1:35" ht="16.5" customHeight="1">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2308,16 +2275,15 @@
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10" t="s">
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-    </row>
-    <row r="28" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:35" ht="16.5" customHeight="1">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2353,14 +2319,13 @@
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
+      <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-    </row>
-    <row r="29" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="29" spans="1:35" ht="16.5" customHeight="1">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2396,14 +2361,13 @@
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
+      <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
       <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-    </row>
-    <row r="30" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="30" spans="1:35" ht="16.5" customHeight="1">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2441,14 +2405,13 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
+      <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
       <c r="AG30" s="10"/>
       <c r="AH30" s="10"/>
       <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-    </row>
-    <row r="31" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="31" spans="1:35" ht="16.5" customHeight="1">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2476,24 +2439,23 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13" t="s">
+      <c r="W31" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
+      <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-    </row>
-    <row r="32" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="32" spans="1:35" ht="16.5" customHeight="1">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2529,14 +2491,13 @@
       <c r="AB32" s="13"/>
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
+      <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
       <c r="AH32" s="10"/>
       <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
-    </row>
-    <row r="33" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="33" spans="1:35" ht="16.5" customHeight="1">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2544,7 +2505,7 @@
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="13"/>
@@ -2566,24 +2527,23 @@
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13" t="s">
+      <c r="Y33" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
+      <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
       <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10" t="s">
+      <c r="AI33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="16.5" customHeight="1">
+    <row r="34" spans="1:35" ht="16.5" customHeight="1">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2591,7 +2551,7 @@
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="13"/>
@@ -2614,23 +2574,22 @@
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13" t="s">
+      <c r="Z34" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
+      <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
       <c r="AG34" s="10"/>
       <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10" t="s">
+      <c r="AI34" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="16.5" customHeight="1">
+    <row r="35" spans="1:35" ht="16.5" customHeight="1">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2638,7 +2597,7 @@
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="13"/>
@@ -2662,22 +2621,21 @@
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13" t="s">
+      <c r="AA35" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="AB35" s="13"/>
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
+      <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
       <c r="AG35" s="10"/>
       <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10" t="s">
+      <c r="AI35" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="16.5" customHeight="1">
+    <row r="36" spans="1:35" ht="16.5" customHeight="1">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2685,7 +2643,7 @@
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
       <c r="D36" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="13"/>
@@ -2710,28 +2668,27 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13" t="s">
+      <c r="AB36" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="AC36" s="13"/>
       <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
+      <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
       <c r="AG36" s="10"/>
       <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10" t="s">
+      <c r="AI36" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="16.5" customHeight="1">
+    <row r="37" spans="1:35" ht="16.5" customHeight="1">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="13"/>
@@ -2765,9 +2722,8 @@
       <c r="AG37" s="13"/>
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-    </row>
-    <row r="38" spans="1:36" ht="16.5" customHeight="1">
+    </row>
+    <row r="38" spans="1:35" ht="16.5" customHeight="1">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2775,7 +2731,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -2802,43 +2758,32 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13" t="s">
+      <c r="AD38" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="AE38" s="13"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="13"/>
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
+  <mergeCells count="38">
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="F4:AB4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="E3:AJ3"/>
+    <mergeCell ref="E3:AI3"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="M6:M7"/>
@@ -2846,14 +2791,22 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="R5:R7"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="F4:AC4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y6:Y7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\hakoishi\TechTrain\PIC_Train\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B1E64-4607-4DF3-8457-0777326C223A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0959EA2C-C72D-434F-AC8A-36D0FA3B3C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11385" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーサビリティマトリクス　" sheetId="1" r:id="rId1"/>
@@ -32,44 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>fuminori.hakoishi</author>
-  </authors>
-  <commentList>
-    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{18D98EC3-F30E-4AB4-9F25-F90245CA1ADC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>fuminori.hakoishi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-名前変更</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>トレーサビリティマトリクス</t>
     <phoneticPr fontId="2"/>
@@ -290,17 +254,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>何もしない</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DoNothing</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Timer</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -379,22 +332,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PlayBGM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>StopBGM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PlaySE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>StopSE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲーム終了処理</t>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
@@ -441,6 +378,14 @@
   </si>
   <si>
     <t>WindowManager</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BGMManager</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEManager</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -451,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,23 +430,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +447,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,6 +652,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -725,6 +703,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
@@ -749,77 +754,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,17 +1076,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
-  <dimension ref="A1:AI38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="N29" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AB30" sqref="AB30"/>
+      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1153,23 +1095,23 @@
     <col min="5" max="5" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" customHeight="1">
+    <row r="1" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="16.5" customHeight="1">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="16.5" customHeight="1">
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
@@ -1199,222 +1141,201 @@
       <c r="AC3" s="44"/>
       <c r="AD3" s="44"/>
       <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="45"/>
-    </row>
-    <row r="4" spans="1:35" ht="16.5" customHeight="1">
+      <c r="AF3" s="45"/>
+    </row>
+    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="16.5" customHeight="1">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="34" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="18"/>
+      <c r="S5" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="19"/>
+      <c r="U5" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="22"/>
+      <c r="W5" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" s="22"/>
-      <c r="X5" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG5" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="23"/>
-    </row>
-    <row r="6" spans="1:35" ht="32.25" customHeight="1">
+      <c r="AD5" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="37"/>
+    </row>
+    <row r="6" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="47"/>
+      <c r="N6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="47"/>
+      <c r="T6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="47"/>
+      <c r="V6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" s="47"/>
+      <c r="X6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" s="35"/>
-      <c r="W6" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB6" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI6" s="23"/>
-    </row>
-    <row r="7" spans="1:35" s="8" customFormat="1" ht="84.75" customHeight="1">
+      <c r="AF6" s="37"/>
+    </row>
+    <row r="7" spans="1:32" s="8" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="23"/>
-    </row>
-    <row r="8" spans="1:35" ht="16.5" customHeight="1">
+      <c r="G7" s="39"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="37"/>
+    </row>
+    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
         <f>ROW(A8) - 7</f>
         <v>1</v>
@@ -1424,41 +1345,38 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="10"/>
-    </row>
-    <row r="9" spans="1:35" ht="16.5" customHeight="1">
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="59"/>
+    </row>
+    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
-        <f t="shared" ref="A9:A38" si="0">ROW(A9) - 7</f>
+        <f t="shared" ref="A9:A37" si="0">ROW(A9) - 7</f>
         <v>2</v>
       </c>
       <c r="B9" s="14"/>
@@ -1473,8 +1391,8 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -1491,23 +1409,20 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-    </row>
-    <row r="10" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
@@ -1517,8 +1432,8 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -1535,16 +1450,13 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-    </row>
-    <row r="11" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1554,39 +1466,36 @@
         <v>27</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-    </row>
-    <row r="12" spans="1:35" ht="16.5" customHeight="1">
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="59"/>
+    </row>
+    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1603,10 +1512,10 @@
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="10" t="s">
+      <c r="J12" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -1623,23 +1532,21 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-    </row>
-    <row r="13" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="13"/>
@@ -1648,8 +1555,8 @@
         <v>28</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -1666,34 +1573,31 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-    </row>
-    <row r="14" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -1710,76 +1614,68 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-    </row>
-    <row r="15" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-    </row>
-    <row r="16" spans="1:35" ht="16.5" customHeight="1">
+      <c r="C15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="59"/>
+    </row>
+    <row r="16" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -1796,33 +1692,34 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-    </row>
-    <row r="17" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="13"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -1838,81 +1735,73 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI17" s="10"/>
-    </row>
-    <row r="18" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-    </row>
-    <row r="19" spans="1:35" ht="16.5" customHeight="1">
+      <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="59"/>
+    </row>
+    <row r="19" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -1926,80 +1815,74 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-    </row>
-    <row r="20" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17">
-        <f t="shared" si="0"/>
+        <f>ROW(A20) - 7</f>
         <v>13</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-    </row>
-    <row r="21" spans="1:35" ht="16.5" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="59"/>
+    </row>
+    <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17">
         <f>ROW(A21) - 7</f>
         <v>14</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="O21" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
@@ -2012,23 +1895,20 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-    </row>
-    <row r="22" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
         <f>ROW(A22) - 7</f>
         <v>15</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -2036,8 +1916,8 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
@@ -2056,41 +1936,38 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-    </row>
-    <row r="23" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="23" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17">
-        <f>ROW(A23) - 7</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="10"/>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -2100,22 +1977,19 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-    </row>
-    <row r="24" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="15"/>
@@ -2124,8 +1998,8 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -2133,10 +2007,10 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
-      <c r="S24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -2144,76 +2018,68 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-    </row>
-    <row r="25" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="25" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>19</v>
+      <c r="B25" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-    </row>
-    <row r="26" spans="1:35" ht="16.5" customHeight="1">
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="59"/>
+    </row>
+    <row r="26" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="16"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
@@ -2230,118 +2096,109 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-    </row>
-    <row r="27" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="27" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-    </row>
-    <row r="28" spans="1:35" ht="16.5" customHeight="1">
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="59"/>
+    </row>
+    <row r="28" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-    </row>
-    <row r="29" spans="1:35" ht="16.5" customHeight="1">
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="59"/>
+    </row>
+    <row r="29" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
@@ -2352,38 +2209,37 @@
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
+      <c r="V29" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-    </row>
-    <row r="30" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
@@ -2394,84 +2250,76 @@
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13" t="s">
+      <c r="V30" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="W30" s="13"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-    </row>
-    <row r="31" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-    </row>
-    <row r="32" spans="1:35" ht="16.5" customHeight="1">
+      <c r="C31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="59"/>
+    </row>
+    <row r="32" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E32" s="10"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
@@ -2484,20 +2332,21 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
+      <c r="X32" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-    </row>
-    <row r="33" spans="1:35" ht="16.5" customHeight="1">
+      <c r="AF32" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2505,15 +2354,15 @@
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
@@ -2526,24 +2375,21 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13" t="s">
+      <c r="X33" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10" t="s">
+      <c r="AF33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="16.5" customHeight="1">
+    <row r="34" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2551,15 +2397,15 @@
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
@@ -2573,39 +2419,36 @@
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13" t="s">
+      <c r="Y34" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
       <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10" t="s">
+      <c r="AF34" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="16.5" customHeight="1">
+    <row r="35" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
@@ -2619,78 +2462,68 @@
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
+      <c r="Y35" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="Z35" s="13"/>
-      <c r="AA35" s="13" t="s">
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" ht="16.5" customHeight="1">
+    </row>
+    <row r="36" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" ht="16.5" customHeight="1">
+      <c r="C36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="59"/>
+    </row>
+    <row r="37" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -2713,104 +2546,55 @@
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
+      <c r="AA37" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="AB37" s="13"/>
       <c r="AC37" s="13"/>
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
       <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-    </row>
-    <row r="38" spans="1:35" ht="16.5" customHeight="1">
-      <c r="A38" s="17">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="F4:AB4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="Y5:AB5"/>
+  <mergeCells count="35">
     <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X6:X7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="E3:AF3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="F4:Y4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:Z7"/>
     <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="E3:AI3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y6:Y7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/資料/設計書/モグラ叩き_TM.xlsx
+++ b/資料/設計書/モグラ叩き_TM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\hakoishi\TechTrain\PIC_Train\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0959EA2C-C72D-434F-AC8A-36D0FA3B3C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D14B2-75E4-4DDC-A05E-6AB4A7B8D2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8971E865-DCB4-47C6-BEAD-416AA6065C37}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>トレーサビリティマトリクス</t>
     <phoneticPr fontId="2"/>
@@ -377,15 +377,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>WindowManager</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BGMManager</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>SEManager</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>InterruptTimer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WriteToBuffer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BufferToLCD</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -457,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -576,6 +584,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,8 +666,77 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
@@ -685,83 +771,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,13 +1094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F3352-2B66-409D-8299-E6EAD555EB44}">
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
+      <selection pane="bottomRight" activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1095,23 +1112,23 @@
     <col min="5" max="5" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
@@ -1141,201 +1158,208 @@
       <c r="AC3" s="44"/>
       <c r="AD3" s="44"/>
       <c r="AE3" s="44"/>
-      <c r="AF3" s="45"/>
-    </row>
-    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="45"/>
+    </row>
+    <row r="4" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="20"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="37" t="s">
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="37"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="46" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="31" t="s">
         <v>34</v>
       </c>
       <c r="L5" s="18"/>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="46" t="s">
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="31" t="s">
         <v>39</v>
       </c>
       <c r="R5" s="18"/>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="31" t="s">
         <v>41</v>
       </c>
       <c r="T5" s="19"/>
-      <c r="U5" s="46" t="s">
+      <c r="U5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="46" t="s">
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="30" t="s">
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="51" t="s">
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="37"/>
-    </row>
-    <row r="6" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="39"/>
+    </row>
+    <row r="6" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="37"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="38" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="38" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="38" t="s">
+      <c r="Q6" s="32"/>
+      <c r="R6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="38" t="s">
+      <c r="S6" s="32"/>
+      <c r="T6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="47"/>
-      <c r="V6" s="38" t="s">
+      <c r="U6" s="32"/>
+      <c r="V6" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="W6" s="47"/>
-      <c r="X6" s="38" t="s">
+      <c r="Z6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="33" t="s">
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="56" t="s">
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AF6" s="37"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG6" s="39"/>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="37"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="37"/>
-    </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="35"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="39"/>
+    </row>
+    <row r="8" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
         <f>ROW(A8) - 7</f>
         <v>1</v>
@@ -1345,36 +1369,37 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="59"/>
-    </row>
-    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="24"/>
+    </row>
+    <row r="9" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
         <f t="shared" ref="A9:A37" si="0">ROW(A9) - 7</f>
         <v>2</v>
@@ -1409,13 +1434,14 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
-      <c r="AB9" s="10"/>
+      <c r="AB9" s="13"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-    </row>
-    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG9" s="10"/>
+    </row>
+    <row r="10" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1450,13 +1476,14 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
-      <c r="AB10" s="10"/>
+      <c r="AB10" s="13"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-    </row>
-    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG10" s="10"/>
+    </row>
+    <row r="11" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1466,36 +1493,37 @@
         <v>27</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="59"/>
-    </row>
-    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="24"/>
+    </row>
+    <row r="12" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1532,13 +1560,14 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
-      <c r="AB12" s="10"/>
+      <c r="AB12" s="13"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-    </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1573,13 +1602,14 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
-      <c r="AB13" s="10"/>
+      <c r="AB13" s="13"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-    </row>
-    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG13" s="10"/>
+    </row>
+    <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1614,13 +1644,14 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
-      <c r="AB14" s="10"/>
+      <c r="AB14" s="13"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
-    </row>
-    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG14" s="10"/>
+    </row>
+    <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1630,36 +1661,37 @@
         <v>9</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="59"/>
-    </row>
-    <row r="16" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="24"/>
+    </row>
+    <row r="16" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1692,15 +1724,16 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
-      <c r="AB16" s="10"/>
+      <c r="AB16" s="13"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
-      <c r="AE16" s="10" t="s">
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AF16" s="10"/>
-    </row>
-    <row r="17" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG16" s="10"/>
+    </row>
+    <row r="17" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1735,13 +1768,14 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
-      <c r="AB17" s="10"/>
+      <c r="AB17" s="13"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-    </row>
-    <row r="18" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG17" s="10"/>
+    </row>
+    <row r="18" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1751,36 +1785,37 @@
         <v>11</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="59"/>
-    </row>
-    <row r="19" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="24"/>
+    </row>
+    <row r="19" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1815,13 +1850,14 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="13"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-    </row>
-    <row r="20" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG19" s="10"/>
+    </row>
+    <row r="20" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17">
         <f>ROW(A20) - 7</f>
         <v>13</v>
@@ -1831,36 +1867,37 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="59"/>
-    </row>
-    <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="24"/>
+    </row>
+    <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17">
         <f>ROW(A21) - 7</f>
         <v>14</v>
@@ -1895,13 +1932,14 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
-      <c r="AB21" s="10"/>
+      <c r="AB21" s="13"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-    </row>
-    <row r="22" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG21" s="10"/>
+    </row>
+    <row r="22" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
         <f>ROW(A22) - 7</f>
         <v>15</v>
@@ -1936,13 +1974,14 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
-      <c r="AB22" s="10"/>
+      <c r="AB22" s="13"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-    </row>
-    <row r="23" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG22" s="10"/>
+    </row>
+    <row r="23" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1977,13 +2016,14 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="10"/>
+      <c r="AB23" s="13"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-    </row>
-    <row r="24" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG23" s="10"/>
+    </row>
+    <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2018,13 +2058,14 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
-      <c r="AB24" s="10"/>
+      <c r="AB24" s="13"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
-    </row>
-    <row r="25" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG24" s="10"/>
+    </row>
+    <row r="25" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2034,36 +2075,37 @@
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="59"/>
-    </row>
-    <row r="26" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="24"/>
+    </row>
+    <row r="26" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2096,15 +2138,16 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10" t="s">
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
-    </row>
-    <row r="27" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG26" s="10"/>
+    </row>
+    <row r="27" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2114,36 +2157,37 @@
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="59"/>
-    </row>
-    <row r="28" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="24"/>
+    </row>
+    <row r="28" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2153,36 +2197,37 @@
         <v>21</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="59"/>
-    </row>
-    <row r="29" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="24"/>
+    </row>
+    <row r="29" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2217,13 +2262,14 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="10"/>
+      <c r="AB29" s="13"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-    </row>
-    <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG29" s="10"/>
+    </row>
+    <row r="30" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2250,21 +2296,22 @@
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="13" t="s">
+      <c r="V30" s="13"/>
+      <c r="W30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W30" s="13"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
-      <c r="AB30" s="10"/>
+      <c r="AB30" s="13"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
-    </row>
-    <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG30" s="10"/>
+    </row>
+    <row r="31" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2274,36 +2321,37 @@
         <v>23</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="59"/>
-    </row>
-    <row r="32" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="24"/>
+    </row>
+    <row r="32" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2332,21 +2380,22 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="13" t="s">
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
-      <c r="AB32" s="10"/>
+      <c r="AB32" s="13"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
-      <c r="AF32" s="10" t="s">
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2375,21 +2424,22 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="13" t="s">
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
-      <c r="AB33" s="10"/>
+      <c r="AB33" s="13"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
-      <c r="AF33" s="10" t="s">
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2419,20 +2469,21 @@
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
-      <c r="Y34" s="13" t="s">
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
-      <c r="AB34" s="10"/>
+      <c r="AB34" s="13"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
       <c r="AE34" s="10"/>
-      <c r="AF34" s="10" t="s">
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2462,20 +2513,21 @@
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
-      <c r="Y35" s="13" t="s">
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
-      <c r="AB35" s="10"/>
+      <c r="AB35" s="13"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
-      <c r="AF35" s="10" t="s">
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2485,36 +2537,37 @@
         <v>55</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="58"/>
-      <c r="Y36" s="58"/>
-      <c r="Z36" s="58"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58"/>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="59"/>
-    </row>
-    <row r="37" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="24"/>
+    </row>
+    <row r="37" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2546,34 +2599,29 @@
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
-      <c r="AA37" s="13" t="s">
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AB37" s="13"/>
       <c r="AC37" s="13"/>
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
       <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X6:X7"/>
+  <mergeCells count="36">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="W6:W7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="E3:AF3"/>
+    <mergeCell ref="E3:AG3"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -2581,17 +2629,24 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="Q5:Q7"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="F4:Y4"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="F4:Z4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
